--- a/MatchTA_Server/temp_file3.xlsx
+++ b/MatchTA_Server/temp_file3.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Capstone/Capstone_Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7C3981EFF613C8564A746CB25846430945DA545A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EBF83BE-BA4E-4567-AFC7-B92824A845B5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{44C5818D-E3B4-4322-B722-14F9BA3628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0788184E-F192-4E3E-91D5-E62F714F71BC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F126547-8D09-47BA-8417-2C26E540D7AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Open Classes Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2217" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2231" uniqueCount="416">
   <si>
     <t>CRN</t>
   </si>
@@ -169,6 +180,9 @@
     <t>00121</t>
   </si>
   <si>
+    <t>32070,49124</t>
+  </si>
+  <si>
     <t>40139</t>
   </si>
   <si>
@@ -184,6 +198,9 @@
     <t>Mustafa Alam</t>
   </si>
   <si>
+    <t>32071,69142</t>
+  </si>
+  <si>
     <t>69142</t>
   </si>
   <si>
@@ -289,6 +306,9 @@
     <t>Susan Mengel</t>
   </si>
   <si>
+    <t>66961,32076,32077</t>
+  </si>
+  <si>
     <t>40140</t>
   </si>
   <si>
@@ -296,6 +316,9 @@
   </si>
   <si>
     <t>Ying Liu</t>
+  </si>
+  <si>
+    <t>67613,69140,69139</t>
   </si>
   <si>
     <t>32076</t>
@@ -1265,19 +1288,15 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1299,27 +1318,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1328,9 +1332,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1338,7 +1340,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1351,9 +1353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1361,44 +1363,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1426,14 +1428,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1461,9 +1480,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1472,205 +1508,201 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E3251-C2F7-4647-8758-BDA107DD0D5B}">
   <dimension ref="A1:W182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="67.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="29.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1808,8 +1840,9 @@
       <c r="V2" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1876,8 +1909,9 @@
       <c r="V3" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1944,10 +1978,13 @@
       <c r="V4" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -1968,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
@@ -1980,13 +2017,13 @@
         <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O5" s="2">
         <v>74</v>
@@ -2012,10 +2049,13 @@
       <c r="V5" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>24</v>
@@ -2027,16 +2067,16 @@
         <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>31</v>
@@ -2051,10 +2091,10 @@
         <v>47</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6" s="3">
         <v>38</v>
@@ -2075,15 +2115,18 @@
         <v>0</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W6" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>24</v>
@@ -2095,16 +2138,16 @@
         <v>44</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>31</v>
@@ -2116,10 +2159,10 @@
         <v>33</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>36</v>
@@ -2143,15 +2186,18 @@
         <v>0</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V7" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W7" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>24</v>
@@ -2163,16 +2209,16 @@
         <v>44</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>31</v>
@@ -2184,7 +2230,7 @@
         <v>33</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>42</v>
@@ -2211,15 +2257,18 @@
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V8" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -2231,34 +2280,34 @@
         <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" s="3">
         <v>36</v>
@@ -2279,15 +2328,18 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V9" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -2296,19 +2348,19 @@
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>31</v>
@@ -2320,13 +2372,13 @@
         <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O10" s="2">
         <v>68</v>
@@ -2352,10 +2404,11 @@
       <c r="V10" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -2364,19 +2417,19 @@
         <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>31</v>
@@ -2388,13 +2441,13 @@
         <v>33</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O11" s="2">
         <v>80</v>
@@ -2420,10 +2473,11 @@
       <c r="V11" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>24</v>
@@ -2432,19 +2486,19 @@
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>31</v>
@@ -2456,13 +2510,13 @@
         <v>33</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O12" s="2">
         <v>90</v>
@@ -2488,10 +2542,13 @@
       <c r="V12" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -2500,19 +2557,19 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>31</v>
@@ -2524,13 +2581,13 @@
         <v>33</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O13" s="2">
         <v>90</v>
@@ -2556,10 +2613,13 @@
       <c r="V13" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W13" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>24</v>
@@ -2568,19 +2628,19 @@
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>31</v>
@@ -2591,10 +2651,8 @@
       <c r="K14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
       <c r="N14" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O14" s="3">
         <v>30</v>
@@ -2615,15 +2673,18 @@
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V14" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
@@ -2632,19 +2693,19 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>31</v>
@@ -2655,10 +2716,8 @@
       <c r="K15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O15" s="3">
         <v>30</v>
@@ -2679,37 +2738,40 @@
         <v>0</v>
       </c>
       <c r="U15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
@@ -2719,10 +2781,8 @@
       <c r="K16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O16" s="3">
         <v>30</v>
@@ -2743,36 +2803,39 @@
         <v>0</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V16" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>31</v>
@@ -2783,10 +2846,8 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O17" s="3">
         <v>30</v>
@@ -2807,37 +2868,40 @@
         <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V17" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>31</v>
       </c>
@@ -2847,10 +2911,8 @@
       <c r="K18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
       <c r="N18" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O18" s="3">
         <v>30</v>
@@ -2871,15 +2933,18 @@
         <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V18" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>24</v>
@@ -2888,19 +2953,19 @@
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>31</v>
@@ -2911,10 +2976,8 @@
       <c r="K19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O19" s="3">
         <v>30</v>
@@ -2935,15 +2998,18 @@
         <v>0</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="V19" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>24</v>
@@ -2952,13 +3018,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>29</v>
@@ -2982,7 +3048,7 @@
         <v>42</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O20" s="2">
         <v>100</v>
@@ -3008,10 +3074,11 @@
       <c r="V20" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>24</v>
@@ -3020,19 +3087,19 @@
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>31</v>
@@ -3050,7 +3117,7 @@
         <v>42</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O21" s="2">
         <v>80</v>
@@ -3076,10 +3143,11 @@
       <c r="V21" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
@@ -3088,13 +3156,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>29</v>
@@ -3118,7 +3186,7 @@
         <v>42</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O22" s="2">
         <v>100</v>
@@ -3144,10 +3212,11 @@
       <c r="V22" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>24</v>
@@ -3156,19 +3225,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>31</v>
@@ -3186,7 +3255,7 @@
         <v>48</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O23" s="2">
         <v>80</v>
@@ -3212,10 +3281,11 @@
       <c r="V23" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
@@ -3224,19 +3294,19 @@
         <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>31</v>
@@ -3248,13 +3318,13 @@
         <v>33</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O24" s="2">
         <v>63</v>
@@ -3280,31 +3350,32 @@
       <c r="V24" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>31</v>
@@ -3316,13 +3387,13 @@
         <v>33</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O25" s="2">
         <v>80</v>
@@ -3348,10 +3419,11 @@
       <c r="V25" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
@@ -3360,19 +3432,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>31</v>
@@ -3390,7 +3462,7 @@
         <v>48</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="O26" s="2">
         <v>100</v>
@@ -3416,10 +3488,11 @@
       <c r="V26" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -3428,13 +3501,13 @@
         <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>29</v>
@@ -3458,7 +3531,7 @@
         <v>42</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O27" s="2">
         <v>80</v>
@@ -3484,10 +3557,11 @@
       <c r="V27" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>24</v>
@@ -3496,19 +3570,19 @@
         <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>31</v>
@@ -3526,7 +3600,7 @@
         <v>42</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O28" s="2">
         <v>100</v>
@@ -3552,10 +3626,11 @@
       <c r="V28" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
@@ -3564,19 +3639,19 @@
         <v>25</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>31</v>
@@ -3594,7 +3669,7 @@
         <v>42</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O29" s="2">
         <v>80</v>
@@ -3620,25 +3695,26 @@
       <c r="V29" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>29</v>
@@ -3662,7 +3738,7 @@
         <v>48</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O30" s="2">
         <v>80</v>
@@ -3688,10 +3764,11 @@
       <c r="V30" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>24</v>
@@ -3700,19 +3777,19 @@
         <v>25</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>31</v>
@@ -3730,7 +3807,7 @@
         <v>42</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O31" s="2">
         <v>100</v>
@@ -3756,10 +3833,11 @@
       <c r="V31" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>24</v>
@@ -3768,19 +3846,19 @@
         <v>25</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>31</v>
@@ -3798,7 +3876,7 @@
         <v>35</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O32" s="2">
         <v>80</v>
@@ -3824,10 +3902,11 @@
       <c r="V32" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>24</v>
@@ -3836,13 +3915,13 @@
         <v>25</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -3858,7 +3937,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O33" s="2">
         <v>20</v>
@@ -3879,30 +3958,31 @@
         <v>0</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V33" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -3918,7 +3998,7 @@
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O34" s="2">
         <v>10</v>
@@ -3939,15 +4019,16 @@
         <v>0</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V34" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>24</v>
@@ -3956,13 +4037,13 @@
         <v>25</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -3978,7 +4059,7 @@
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O35" s="2">
         <v>10</v>
@@ -3999,15 +4080,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V35" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>24</v>
@@ -4016,13 +4098,13 @@
         <v>25</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -4038,7 +4120,7 @@
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O36" s="2">
         <v>10</v>
@@ -4059,15 +4141,16 @@
         <v>0</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V36" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>24</v>
@@ -4076,13 +4159,13 @@
         <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -4098,7 +4181,7 @@
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O37" s="2">
         <v>10</v>
@@ -4119,15 +4202,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V37" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>24</v>
@@ -4136,13 +4220,13 @@
         <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4158,7 +4242,7 @@
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O38" s="2">
         <v>10</v>
@@ -4179,15 +4263,16 @@
         <v>0</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V38" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>24</v>
@@ -4196,13 +4281,13 @@
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -4218,7 +4303,7 @@
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O39" s="2">
         <v>10</v>
@@ -4239,15 +4324,16 @@
         <v>0</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V39" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>24</v>
@@ -4256,13 +4342,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4278,7 +4364,7 @@
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O40" s="2">
         <v>10</v>
@@ -4299,15 +4385,16 @@
         <v>0</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V40" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>24</v>
@@ -4316,13 +4403,13 @@
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -4338,7 +4425,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O41" s="2">
         <v>10</v>
@@ -4359,15 +4446,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V41" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>24</v>
@@ -4376,13 +4464,13 @@
         <v>25</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -4398,7 +4486,7 @@
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O42" s="2">
         <v>10</v>
@@ -4419,15 +4507,16 @@
         <v>0</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V42" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>24</v>
@@ -4436,13 +4525,13 @@
         <v>25</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -4458,7 +4547,7 @@
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O43" s="2">
         <v>10</v>
@@ -4479,15 +4568,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V43" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>24</v>
@@ -4496,13 +4586,13 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -4518,7 +4608,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O44" s="2">
         <v>10</v>
@@ -4539,15 +4629,16 @@
         <v>0</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V44" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>24</v>
@@ -4556,13 +4647,13 @@
         <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -4578,7 +4669,7 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O45" s="2">
         <v>10</v>
@@ -4599,15 +4690,16 @@
         <v>0</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V45" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>24</v>
@@ -4616,13 +4708,13 @@
         <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -4638,7 +4730,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O46" s="2">
         <v>10</v>
@@ -4659,15 +4751,16 @@
         <v>0</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V46" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>24</v>
@@ -4676,13 +4769,13 @@
         <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -4698,7 +4791,7 @@
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2">
         <v>10</v>
@@ -4719,15 +4812,16 @@
         <v>0</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V47" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>24</v>
@@ -4736,13 +4830,13 @@
         <v>25</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -4758,7 +4852,7 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O48" s="2">
         <v>10</v>
@@ -4779,15 +4873,16 @@
         <v>0</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V48" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>24</v>
@@ -4796,13 +4891,13 @@
         <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -4818,7 +4913,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O49" s="2">
         <v>10</v>
@@ -4839,15 +4934,16 @@
         <v>0</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V49" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W49" s="2"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>24</v>
@@ -4856,13 +4952,13 @@
         <v>25</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -4878,7 +4974,7 @@
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O50" s="2">
         <v>20</v>
@@ -4899,15 +4995,16 @@
         <v>0</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V50" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="2"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>24</v>
@@ -4916,13 +5013,13 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -4938,7 +5035,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O51" s="2">
         <v>20</v>
@@ -4959,15 +5056,16 @@
         <v>0</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V51" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W51" s="2"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>24</v>
@@ -4976,13 +5074,13 @@
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -4998,7 +5096,7 @@
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O52" s="2">
         <v>10</v>
@@ -5019,15 +5117,16 @@
         <v>0</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V52" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="2"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>24</v>
@@ -5036,13 +5135,13 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -5058,7 +5157,7 @@
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O53" s="2">
         <v>20</v>
@@ -5079,15 +5178,16 @@
         <v>0</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V53" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="2"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>24</v>
@@ -5096,19 +5196,19 @@
         <v>25</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>31</v>
@@ -5126,7 +5226,7 @@
         <v>42</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O54" s="2">
         <v>60</v>
@@ -5152,10 +5252,11 @@
       <c r="V54" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="2"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>24</v>
@@ -5164,19 +5265,19 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>31</v>
@@ -5188,13 +5289,13 @@
         <v>33</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O55" s="2">
         <v>40</v>
@@ -5220,10 +5321,11 @@
       <c r="V55" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="2"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>24</v>
@@ -5232,19 +5334,19 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>31</v>
@@ -5259,10 +5361,10 @@
         <v>34</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O56" s="2">
         <v>5</v>
@@ -5288,10 +5390,11 @@
       <c r="V56" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="2"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>24</v>
@@ -5300,19 +5403,19 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>31</v>
@@ -5324,10 +5427,10 @@
         <v>33</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
@@ -5354,10 +5457,11 @@
       <c r="V57" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="2"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>24</v>
@@ -5366,19 +5470,19 @@
         <v>25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>31</v>
@@ -5396,7 +5500,7 @@
         <v>42</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O58" s="2">
         <v>125</v>
@@ -5422,10 +5526,11 @@
       <c r="V58" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="2"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>24</v>
@@ -5434,19 +5539,19 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>31</v>
@@ -5464,7 +5569,7 @@
         <v>42</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O59" s="2">
         <v>125</v>
@@ -5490,10 +5595,11 @@
       <c r="V59" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="2"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>24</v>
@@ -5502,19 +5608,19 @@
         <v>25</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>31</v>
@@ -5526,13 +5632,13 @@
         <v>33</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O60" s="2">
         <v>125</v>
@@ -5558,10 +5664,11 @@
       <c r="V60" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W60" s="2"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>24</v>
@@ -5570,13 +5677,13 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>29</v>
@@ -5600,7 +5707,7 @@
         <v>42</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O61" s="2">
         <v>35</v>
@@ -5626,10 +5733,11 @@
       <c r="V61" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="2"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>24</v>
@@ -5638,19 +5746,19 @@
         <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>31</v>
@@ -5662,13 +5770,13 @@
         <v>33</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O62" s="2">
         <v>100</v>
@@ -5694,10 +5802,11 @@
       <c r="V62" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="2"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>24</v>
@@ -5706,13 +5815,13 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -5728,7 +5837,7 @@
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O63" s="2">
         <v>20</v>
@@ -5749,15 +5858,16 @@
         <v>0</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="V63" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="2"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>24</v>
@@ -5766,19 +5876,19 @@
         <v>25</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>31</v>
@@ -5790,13 +5900,13 @@
         <v>33</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O64" s="2">
         <v>200</v>
@@ -5817,15 +5927,16 @@
         <v>95</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="V64" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="2"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>24</v>
@@ -5834,19 +5945,19 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>31</v>
@@ -5864,7 +5975,7 @@
         <v>48</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O65" s="2">
         <v>100</v>
@@ -5890,10 +6001,11 @@
       <c r="V65" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="2"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>24</v>
@@ -5902,19 +6014,19 @@
         <v>25</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>31</v>
@@ -5932,7 +6044,7 @@
         <v>42</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O66" s="2">
         <v>40</v>
@@ -5958,31 +6070,32 @@
       <c r="V66" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="2"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>31</v>
@@ -6000,7 +6113,7 @@
         <v>48</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O67" s="2">
         <v>100</v>
@@ -6026,10 +6139,11 @@
       <c r="V67" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="2"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>24</v>
@@ -6038,19 +6152,19 @@
         <v>25</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>31</v>
@@ -6062,13 +6176,13 @@
         <v>33</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O68" s="2">
         <v>100</v>
@@ -6094,10 +6208,11 @@
       <c r="V68" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="2"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>24</v>
@@ -6106,19 +6221,19 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>31</v>
@@ -6130,10 +6245,10 @@
         <v>33</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2">
@@ -6160,10 +6275,11 @@
       <c r="V69" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W69" s="2"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>24</v>
@@ -6172,19 +6288,19 @@
         <v>25</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>31</v>
@@ -6196,13 +6312,13 @@
         <v>33</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O70" s="2">
         <v>100</v>
@@ -6228,10 +6344,11 @@
       <c r="V70" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="2"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>24</v>
@@ -6240,13 +6357,13 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>29</v>
@@ -6264,13 +6381,13 @@
         <v>33</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O71" s="2">
         <v>100</v>
@@ -6296,10 +6413,11 @@
       <c r="V71" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W71" s="2"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>24</v>
@@ -6308,19 +6426,19 @@
         <v>25</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>31</v>
@@ -6332,13 +6450,13 @@
         <v>33</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O72" s="2">
         <v>100</v>
@@ -6364,10 +6482,11 @@
       <c r="V72" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W72" s="2"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>24</v>
@@ -6376,19 +6495,19 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>31</v>
@@ -6400,13 +6519,13 @@
         <v>33</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O73" s="2">
         <v>67</v>
@@ -6432,10 +6551,11 @@
       <c r="V73" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W73" s="2"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>24</v>
@@ -6444,19 +6564,19 @@
         <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>31</v>
@@ -6474,7 +6594,7 @@
         <v>42</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O74" s="2">
         <v>100</v>
@@ -6500,10 +6620,11 @@
       <c r="V74" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="2"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>24</v>
@@ -6512,19 +6633,19 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>31</v>
@@ -6542,7 +6663,7 @@
         <v>42</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O75" s="2">
         <v>100</v>
@@ -6568,10 +6689,11 @@
       <c r="V75" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W75" s="2"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>24</v>
@@ -6580,19 +6702,19 @@
         <v>25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>31</v>
@@ -6610,7 +6732,7 @@
         <v>42</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O76" s="2">
         <v>100</v>
@@ -6636,10 +6758,11 @@
       <c r="V76" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="2"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>24</v>
@@ -6648,19 +6771,19 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>31</v>
@@ -6672,13 +6795,13 @@
         <v>33</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O77" s="2">
         <v>100</v>
@@ -6704,10 +6827,11 @@
       <c r="V77" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="2"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>24</v>
@@ -6716,13 +6840,13 @@
         <v>25</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>29</v>
@@ -6746,7 +6870,7 @@
         <v>42</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O78" s="2">
         <v>65</v>
@@ -6772,10 +6896,11 @@
       <c r="V78" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="2"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>24</v>
@@ -6784,13 +6909,13 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>29</v>
@@ -6808,13 +6933,13 @@
         <v>33</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O79" s="2">
         <v>100</v>
@@ -6840,10 +6965,11 @@
       <c r="V79" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W79" s="2"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>24</v>
@@ -6852,19 +6978,19 @@
         <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>31</v>
@@ -6876,13 +7002,13 @@
         <v>33</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O80" s="2">
         <v>100</v>
@@ -6908,10 +7034,11 @@
       <c r="V80" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="2"/>
+    </row>
+    <row r="81" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>24</v>
@@ -6920,19 +7047,19 @@
         <v>25</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>31</v>
@@ -6944,13 +7071,13 @@
         <v>33</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -6977,9 +7104,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>24</v>
@@ -6988,19 +7115,19 @@
         <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>31</v>
@@ -7012,10 +7139,10 @@
         <v>33</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>36</v>
@@ -7044,10 +7171,11 @@
       <c r="V82" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="2"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>24</v>
@@ -7056,13 +7184,13 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -7078,7 +7206,7 @@
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O83" s="2">
         <v>5</v>
@@ -7099,15 +7227,16 @@
         <v>0</v>
       </c>
       <c r="U83" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V83" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83" s="2"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>24</v>
@@ -7116,13 +7245,13 @@
         <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -7138,7 +7267,7 @@
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O84" s="2">
         <v>5</v>
@@ -7159,30 +7288,31 @@
         <v>0</v>
       </c>
       <c r="U84" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V84" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="2"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -7198,7 +7328,7 @@
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O85" s="2">
         <v>5</v>
@@ -7219,30 +7349,31 @@
         <v>0</v>
       </c>
       <c r="U85" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V85" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W85" s="2"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>299</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -7258,7 +7389,7 @@
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
       <c r="N86" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O86" s="2">
         <v>5</v>
@@ -7279,15 +7410,16 @@
         <v>0</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V86" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W86" s="2"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>24</v>
@@ -7296,13 +7428,13 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -7318,7 +7450,7 @@
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O87" s="2">
         <v>5</v>
@@ -7339,15 +7471,16 @@
         <v>0</v>
       </c>
       <c r="U87" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V87" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W87" s="2"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>24</v>
@@ -7356,13 +7489,13 @@
         <v>25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -7378,7 +7511,7 @@
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
       <c r="N88" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O88" s="2">
         <v>5</v>
@@ -7399,15 +7532,16 @@
         <v>0</v>
       </c>
       <c r="U88" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V88" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W88" s="2"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>24</v>
@@ -7416,13 +7550,13 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -7438,7 +7572,7 @@
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
       <c r="N89" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O89" s="2">
         <v>5</v>
@@ -7459,15 +7593,16 @@
         <v>0</v>
       </c>
       <c r="U89" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V89" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W89" s="2"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>24</v>
@@ -7476,13 +7611,13 @@
         <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -7498,7 +7633,7 @@
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O90" s="2">
         <v>5</v>
@@ -7519,15 +7654,16 @@
         <v>0</v>
       </c>
       <c r="U90" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V90" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W90" s="2"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>24</v>
@@ -7536,13 +7672,13 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -7558,7 +7694,7 @@
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O91" s="2">
         <v>5</v>
@@ -7579,15 +7715,16 @@
         <v>0</v>
       </c>
       <c r="U91" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V91" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W91" s="2"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>24</v>
@@ -7596,13 +7733,13 @@
         <v>25</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -7618,7 +7755,7 @@
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O92" s="2">
         <v>5</v>
@@ -7639,15 +7776,16 @@
         <v>0</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V92" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W92" s="2"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>24</v>
@@ -7656,13 +7794,13 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -7678,7 +7816,7 @@
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O93" s="2">
         <v>5</v>
@@ -7699,15 +7837,16 @@
         <v>0</v>
       </c>
       <c r="U93" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V93" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W93" s="2"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>24</v>
@@ -7716,13 +7855,13 @@
         <v>25</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -7738,7 +7877,7 @@
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O94" s="2">
         <v>5</v>
@@ -7759,15 +7898,16 @@
         <v>0</v>
       </c>
       <c r="U94" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V94" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W94" s="2"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>24</v>
@@ -7776,13 +7916,13 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -7798,7 +7938,7 @@
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
       <c r="N95" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O95" s="2">
         <v>5</v>
@@ -7819,15 +7959,16 @@
         <v>0</v>
       </c>
       <c r="U95" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V95" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W95" s="2"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>24</v>
@@ -7836,13 +7977,13 @@
         <v>25</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -7858,7 +7999,7 @@
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O96" s="2">
         <v>5</v>
@@ -7879,15 +8020,16 @@
         <v>0</v>
       </c>
       <c r="U96" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V96" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W96" s="2"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>24</v>
@@ -7896,13 +8038,13 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -7918,7 +8060,7 @@
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
       <c r="N97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O97" s="2">
         <v>5</v>
@@ -7939,15 +8081,16 @@
         <v>0</v>
       </c>
       <c r="U97" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V97" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97" s="2"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>24</v>
@@ -7956,13 +8099,13 @@
         <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -7978,7 +8121,7 @@
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
       <c r="N98" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O98" s="2">
         <v>5</v>
@@ -7999,15 +8142,16 @@
         <v>0</v>
       </c>
       <c r="U98" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V98" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="2"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>24</v>
@@ -8016,13 +8160,13 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -8038,7 +8182,7 @@
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
       <c r="N99" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O99" s="2">
         <v>5</v>
@@ -8059,15 +8203,16 @@
         <v>0</v>
       </c>
       <c r="U99" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V99" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99" s="2"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>24</v>
@@ -8076,13 +8221,13 @@
         <v>25</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
@@ -8098,7 +8243,7 @@
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O100" s="2">
         <v>5</v>
@@ -8119,15 +8264,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V100" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="2"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>24</v>
@@ -8136,13 +8282,13 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -8158,7 +8304,7 @@
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O101" s="2">
         <v>5</v>
@@ -8179,15 +8325,16 @@
         <v>0</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V101" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101" s="2"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>24</v>
@@ -8196,13 +8343,13 @@
         <v>25</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -8218,7 +8365,7 @@
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O102" s="2">
         <v>5</v>
@@ -8239,15 +8386,16 @@
         <v>0</v>
       </c>
       <c r="U102" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="V102" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W102" s="2"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>24</v>
@@ -8256,13 +8404,13 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -8278,7 +8426,7 @@
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O103" s="2">
         <v>5</v>
@@ -8299,15 +8447,16 @@
         <v>0</v>
       </c>
       <c r="U103" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V103" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W103" s="2"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>24</v>
@@ -8316,13 +8465,13 @@
         <v>25</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -8338,7 +8487,7 @@
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
       <c r="N104" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O104" s="2">
         <v>5</v>
@@ -8359,15 +8508,16 @@
         <v>0</v>
       </c>
       <c r="U104" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V104" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W104" s="2"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>24</v>
@@ -8376,13 +8526,13 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
@@ -8398,7 +8548,7 @@
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
       <c r="N105" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O105" s="2">
         <v>5</v>
@@ -8419,30 +8569,31 @@
         <v>0</v>
       </c>
       <c r="U105" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V105" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W105" s="2"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
@@ -8458,7 +8609,7 @@
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
       <c r="N106" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O106" s="2">
         <v>15</v>
@@ -8479,30 +8630,31 @@
         <v>0</v>
       </c>
       <c r="U106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V106" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W106" s="2"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
@@ -8518,7 +8670,7 @@
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O107" s="2">
         <v>20</v>
@@ -8539,15 +8691,16 @@
         <v>0</v>
       </c>
       <c r="U107" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V107" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W107" s="2"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>24</v>
@@ -8556,13 +8709,13 @@
         <v>25</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -8578,7 +8731,7 @@
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O108" s="2">
         <v>5</v>
@@ -8599,15 +8752,16 @@
         <v>0</v>
       </c>
       <c r="U108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V108" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W108" s="2"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>24</v>
@@ -8616,13 +8770,13 @@
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
@@ -8638,7 +8792,7 @@
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
       <c r="N109" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O109" s="2">
         <v>5</v>
@@ -8659,15 +8813,16 @@
         <v>0</v>
       </c>
       <c r="U109" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V109" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W109" s="2"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>24</v>
@@ -8676,13 +8831,13 @@
         <v>25</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
@@ -8698,7 +8853,7 @@
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O110" s="2">
         <v>5</v>
@@ -8719,15 +8874,16 @@
         <v>0</v>
       </c>
       <c r="U110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V110" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W110" s="2"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>24</v>
@@ -8736,13 +8892,13 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -8758,7 +8914,7 @@
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
       <c r="N111" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O111" s="2">
         <v>20</v>
@@ -8779,15 +8935,16 @@
         <v>0</v>
       </c>
       <c r="U111" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V111" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W111" s="2"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>24</v>
@@ -8796,13 +8953,13 @@
         <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
@@ -8818,7 +8975,7 @@
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O112" s="2">
         <v>5</v>
@@ -8839,15 +8996,16 @@
         <v>0</v>
       </c>
       <c r="U112" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V112" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W112" s="2"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>24</v>
@@ -8856,13 +9014,13 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
@@ -8878,7 +9036,7 @@
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
       <c r="N113" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O113" s="2">
         <v>5</v>
@@ -8899,15 +9057,16 @@
         <v>0</v>
       </c>
       <c r="U113" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V113" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W113" s="2"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>24</v>
@@ -8916,13 +9075,13 @@
         <v>25</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -8938,7 +9097,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
       <c r="N114" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O114" s="2">
         <v>5</v>
@@ -8959,15 +9118,16 @@
         <v>0</v>
       </c>
       <c r="U114" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V114" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W114" s="2"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>24</v>
@@ -8976,13 +9136,13 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8998,7 +9158,7 @@
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
       <c r="N115" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O115" s="2">
         <v>10</v>
@@ -9019,15 +9179,16 @@
         <v>0</v>
       </c>
       <c r="U115" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V115" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W115" s="2"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>24</v>
@@ -9036,13 +9197,13 @@
         <v>25</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -9058,7 +9219,7 @@
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O116" s="2">
         <v>25</v>
@@ -9079,15 +9240,16 @@
         <v>0</v>
       </c>
       <c r="U116" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V116" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W116" s="2"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>24</v>
@@ -9096,13 +9258,13 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -9118,7 +9280,7 @@
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
       <c r="N117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O117" s="2">
         <v>5</v>
@@ -9139,15 +9301,16 @@
         <v>0</v>
       </c>
       <c r="U117" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V117" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W117" s="2"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>24</v>
@@ -9156,13 +9319,13 @@
         <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -9178,7 +9341,7 @@
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O118" s="2">
         <v>40</v>
@@ -9199,15 +9362,16 @@
         <v>0</v>
       </c>
       <c r="U118" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V118" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W118" s="2"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>24</v>
@@ -9216,13 +9380,13 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -9238,7 +9402,7 @@
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O119" s="2">
         <v>5</v>
@@ -9259,15 +9423,16 @@
         <v>0</v>
       </c>
       <c r="U119" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V119" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W119" s="2"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>24</v>
@@ -9276,13 +9441,13 @@
         <v>25</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -9298,7 +9463,7 @@
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O120" s="2">
         <v>5</v>
@@ -9319,15 +9484,16 @@
         <v>0</v>
       </c>
       <c r="U120" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V120" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W120" s="2"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>24</v>
@@ -9336,13 +9502,13 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -9358,7 +9524,7 @@
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
       <c r="N121" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O121" s="2">
         <v>5</v>
@@ -9379,15 +9545,16 @@
         <v>0</v>
       </c>
       <c r="U121" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V121" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W121" s="2"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>24</v>
@@ -9396,13 +9563,13 @@
         <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -9418,7 +9585,7 @@
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O122" s="2">
         <v>5</v>
@@ -9439,15 +9606,16 @@
         <v>0</v>
       </c>
       <c r="U122" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V122" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W122" s="2"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>24</v>
@@ -9456,13 +9624,13 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -9497,15 +9665,16 @@
         <v>0</v>
       </c>
       <c r="U123" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V123" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W123" s="2"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>24</v>
@@ -9514,13 +9683,13 @@
         <v>25</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -9555,15 +9724,16 @@
         <v>0</v>
       </c>
       <c r="U124" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V124" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W124" s="2"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>24</v>
@@ -9572,13 +9742,13 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -9613,30 +9783,31 @@
         <v>0</v>
       </c>
       <c r="U125" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V125" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W125" s="2"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -9671,30 +9842,31 @@
         <v>0</v>
       </c>
       <c r="U126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V126" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W126" s="2"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -9729,15 +9901,16 @@
         <v>0</v>
       </c>
       <c r="U127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V127" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W127" s="2"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>24</v>
@@ -9746,13 +9919,13 @@
         <v>25</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -9787,15 +9960,16 @@
         <v>0</v>
       </c>
       <c r="U128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V128" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W128" s="2"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>24</v>
@@ -9804,13 +9978,13 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -9845,15 +10019,16 @@
         <v>0</v>
       </c>
       <c r="U129" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V129" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W129" s="2"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>24</v>
@@ -9862,13 +10037,13 @@
         <v>25</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
@@ -9903,15 +10078,16 @@
         <v>0</v>
       </c>
       <c r="U130" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V130" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W130" s="2"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>24</v>
@@ -9920,13 +10096,13 @@
         <v>25</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
@@ -9961,30 +10137,31 @@
         <v>0</v>
       </c>
       <c r="U131" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V131" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W131" s="2"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -10019,15 +10196,16 @@
         <v>0</v>
       </c>
       <c r="U132" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V132" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W132" s="2"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>24</v>
@@ -10036,13 +10214,13 @@
         <v>25</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
@@ -10077,15 +10255,16 @@
         <v>0</v>
       </c>
       <c r="U133" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V133" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W133" s="2"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>24</v>
@@ -10094,13 +10273,13 @@
         <v>25</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
@@ -10135,15 +10314,16 @@
         <v>0</v>
       </c>
       <c r="U134" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V134" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W134" s="2"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>24</v>
@@ -10152,13 +10332,13 @@
         <v>25</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
@@ -10193,15 +10373,16 @@
         <v>0</v>
       </c>
       <c r="U135" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V135" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W135" s="2"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>24</v>
@@ -10210,13 +10391,13 @@
         <v>25</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
@@ -10251,15 +10432,16 @@
         <v>0</v>
       </c>
       <c r="U136" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V136" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W136" s="2"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>24</v>
@@ -10268,13 +10450,13 @@
         <v>25</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -10309,15 +10491,16 @@
         <v>0</v>
       </c>
       <c r="U137" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V137" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W137" s="2"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>24</v>
@@ -10326,13 +10509,13 @@
         <v>25</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -10367,15 +10550,16 @@
         <v>0</v>
       </c>
       <c r="U138" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V138" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W138" s="2"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>24</v>
@@ -10384,13 +10568,13 @@
         <v>25</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
@@ -10425,15 +10609,16 @@
         <v>0</v>
       </c>
       <c r="U139" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V139" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W139" s="2"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>24</v>
@@ -10442,13 +10627,13 @@
         <v>25</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
@@ -10483,15 +10668,16 @@
         <v>0</v>
       </c>
       <c r="U140" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V140" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W140" s="2"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>24</v>
@@ -10500,13 +10686,13 @@
         <v>25</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
@@ -10541,15 +10727,16 @@
         <v>0</v>
       </c>
       <c r="U141" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V141" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W141" s="2"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>24</v>
@@ -10558,13 +10745,13 @@
         <v>25</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -10580,7 +10767,7 @@
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O142" s="2">
         <v>5</v>
@@ -10601,15 +10788,16 @@
         <v>0</v>
       </c>
       <c r="U142" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V142" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W142" s="2"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>24</v>
@@ -10618,13 +10806,13 @@
         <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -10640,7 +10828,7 @@
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
       <c r="N143" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O143" s="2">
         <v>5</v>
@@ -10661,15 +10849,16 @@
         <v>0</v>
       </c>
       <c r="U143" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V143" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W143" s="2"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>24</v>
@@ -10678,13 +10867,13 @@
         <v>25</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -10700,7 +10889,7 @@
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
       <c r="N144" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O144" s="2">
         <v>10</v>
@@ -10721,30 +10910,31 @@
         <v>0</v>
       </c>
       <c r="U144" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V144" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W144" s="2"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="E145" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
@@ -10760,7 +10950,7 @@
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O145" s="2">
         <v>5</v>
@@ -10781,15 +10971,16 @@
         <v>0</v>
       </c>
       <c r="U145" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V145" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W145" s="2"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>24</v>
@@ -10798,13 +10989,13 @@
         <v>25</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -10820,7 +11011,7 @@
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O146" s="2">
         <v>5</v>
@@ -10841,15 +11032,16 @@
         <v>0</v>
       </c>
       <c r="U146" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V146" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W146" s="2"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>24</v>
@@ -10858,13 +11050,13 @@
         <v>25</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -10880,7 +11072,7 @@
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O147" s="2">
         <v>5</v>
@@ -10901,15 +11093,16 @@
         <v>0</v>
       </c>
       <c r="U147" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V147" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W147" s="2"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>24</v>
@@ -10918,13 +11111,13 @@
         <v>25</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -10940,7 +11133,7 @@
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O148" s="2">
         <v>8</v>
@@ -10961,30 +11154,31 @@
         <v>0</v>
       </c>
       <c r="U148" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V148" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W148" s="2"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -11000,7 +11194,7 @@
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
       <c r="N149" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O149" s="2">
         <v>5</v>
@@ -11021,15 +11215,16 @@
         <v>0</v>
       </c>
       <c r="U149" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V149" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W149" s="2"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>24</v>
@@ -11038,13 +11233,13 @@
         <v>25</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -11060,7 +11255,7 @@
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
       <c r="N150" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O150" s="2">
         <v>10</v>
@@ -11081,15 +11276,16 @@
         <v>0</v>
       </c>
       <c r="U150" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V150" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W150" s="2"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>24</v>
@@ -11098,13 +11294,13 @@
         <v>25</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
@@ -11120,7 +11316,7 @@
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O151" s="2">
         <v>5</v>
@@ -11141,15 +11337,16 @@
         <v>0</v>
       </c>
       <c r="U151" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V151" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W151" s="2"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>24</v>
@@ -11158,13 +11355,13 @@
         <v>25</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -11180,7 +11377,7 @@
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
       <c r="N152" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O152" s="2">
         <v>15</v>
@@ -11201,15 +11398,16 @@
         <v>0</v>
       </c>
       <c r="U152" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V152" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W152" s="2"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>24</v>
@@ -11218,13 +11416,13 @@
         <v>25</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
@@ -11240,7 +11438,7 @@
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
       <c r="N153" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O153" s="2">
         <v>15</v>
@@ -11261,15 +11459,16 @@
         <v>0</v>
       </c>
       <c r="U153" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V153" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W153" s="2"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>24</v>
@@ -11278,13 +11477,13 @@
         <v>25</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G154" s="2"/>
       <c r="H154" s="2"/>
@@ -11300,7 +11499,7 @@
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
       <c r="N154" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O154" s="2">
         <v>10</v>
@@ -11321,15 +11520,16 @@
         <v>0</v>
       </c>
       <c r="U154" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V154" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W154" s="2"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>24</v>
@@ -11338,13 +11538,13 @@
         <v>25</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G155" s="2"/>
       <c r="H155" s="2"/>
@@ -11360,7 +11560,7 @@
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O155" s="2">
         <v>5</v>
@@ -11381,15 +11581,16 @@
         <v>0</v>
       </c>
       <c r="U155" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V155" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W155" s="2"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>24</v>
@@ -11398,13 +11599,13 @@
         <v>25</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -11420,7 +11621,7 @@
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
       <c r="N156" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O156" s="2">
         <v>5</v>
@@ -11441,15 +11642,16 @@
         <v>0</v>
       </c>
       <c r="U156" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V156" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W156" s="2"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>24</v>
@@ -11458,13 +11660,13 @@
         <v>25</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
@@ -11480,7 +11682,7 @@
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O157" s="2">
         <v>25</v>
@@ -11501,15 +11703,16 @@
         <v>0</v>
       </c>
       <c r="U157" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V157" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W157" s="2"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>24</v>
@@ -11518,13 +11721,13 @@
         <v>25</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
@@ -11540,7 +11743,7 @@
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
       <c r="N158" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O158" s="2">
         <v>5</v>
@@ -11561,15 +11764,16 @@
         <v>0</v>
       </c>
       <c r="U158" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V158" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W158" s="2"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>24</v>
@@ -11578,13 +11782,13 @@
         <v>25</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
@@ -11600,7 +11804,7 @@
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O159" s="2">
         <v>5</v>
@@ -11621,15 +11825,16 @@
         <v>0</v>
       </c>
       <c r="U159" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V159" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W159" s="2"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>24</v>
@@ -11638,13 +11843,13 @@
         <v>25</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G160" s="2"/>
       <c r="H160" s="2"/>
@@ -11660,7 +11865,7 @@
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O160" s="2">
         <v>5</v>
@@ -11681,15 +11886,16 @@
         <v>0</v>
       </c>
       <c r="U160" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V160" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W160" s="2"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>24</v>
@@ -11698,13 +11904,13 @@
         <v>25</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G161" s="2"/>
       <c r="H161" s="2"/>
@@ -11720,7 +11926,7 @@
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
       <c r="N161" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O161" s="2">
         <v>5</v>
@@ -11741,15 +11947,16 @@
         <v>0</v>
       </c>
       <c r="U161" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V161" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W161" s="2"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>24</v>
@@ -11758,13 +11965,13 @@
         <v>25</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
@@ -11780,7 +11987,7 @@
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O162" s="2">
         <v>5</v>
@@ -11801,15 +12008,16 @@
         <v>0</v>
       </c>
       <c r="U162" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="V162" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W162" s="2"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>24</v>
@@ -11818,13 +12026,13 @@
         <v>25</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -11840,7 +12048,7 @@
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
       <c r="N163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O163" s="2">
         <v>5</v>
@@ -11861,15 +12069,16 @@
         <v>0</v>
       </c>
       <c r="U163" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V163" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W163" s="2"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>24</v>
@@ -11878,13 +12087,13 @@
         <v>25</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
@@ -11900,7 +12109,7 @@
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O164" s="2">
         <v>10</v>
@@ -11921,30 +12130,31 @@
         <v>0</v>
       </c>
       <c r="U164" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V164" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W164" s="2"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G165" s="2"/>
       <c r="H165" s="2"/>
@@ -11960,7 +12170,7 @@
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
       <c r="N165" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="O165" s="2">
         <v>5</v>
@@ -11981,30 +12191,31 @@
         <v>0</v>
       </c>
       <c r="U165" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V165" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W165" s="2"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F166" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="G166" s="2"/>
       <c r="H166" s="2"/>
@@ -12020,7 +12231,7 @@
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="O166" s="2">
         <v>5</v>
@@ -12041,15 +12252,16 @@
         <v>0</v>
       </c>
       <c r="U166" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V166" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W166" s="2"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>24</v>
@@ -12058,13 +12270,13 @@
         <v>25</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G167" s="2"/>
       <c r="H167" s="2"/>
@@ -12080,7 +12292,7 @@
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
       <c r="N167" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O167" s="2">
         <v>5</v>
@@ -12101,15 +12313,16 @@
         <v>0</v>
       </c>
       <c r="U167" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V167" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W167" s="2"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>24</v>
@@ -12118,13 +12331,13 @@
         <v>25</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
@@ -12140,7 +12353,7 @@
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O168" s="2">
         <v>5</v>
@@ -12161,15 +12374,16 @@
         <v>0</v>
       </c>
       <c r="U168" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V168" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W168" s="2"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>24</v>
@@ -12178,13 +12392,13 @@
         <v>25</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -12200,7 +12414,7 @@
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
       <c r="N169" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O169" s="2">
         <v>5</v>
@@ -12221,15 +12435,16 @@
         <v>0</v>
       </c>
       <c r="U169" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V169" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W169" s="2"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>24</v>
@@ -12238,13 +12453,13 @@
         <v>25</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
@@ -12260,7 +12475,7 @@
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
       <c r="N170" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O170" s="2">
         <v>5</v>
@@ -12281,15 +12496,16 @@
         <v>0</v>
       </c>
       <c r="U170" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V170" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W170" s="2"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>24</v>
@@ -12298,13 +12514,13 @@
         <v>25</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G171" s="2"/>
       <c r="H171" s="2"/>
@@ -12320,7 +12536,7 @@
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="O171" s="2">
         <v>5</v>
@@ -12341,15 +12557,16 @@
         <v>0</v>
       </c>
       <c r="U171" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V171" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W171" s="2"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>24</v>
@@ -12358,13 +12575,13 @@
         <v>25</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G172" s="2"/>
       <c r="H172" s="2"/>
@@ -12380,7 +12597,7 @@
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="O172" s="2">
         <v>10</v>
@@ -12401,15 +12618,16 @@
         <v>0</v>
       </c>
       <c r="U172" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V172" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W172" s="2"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>24</v>
@@ -12418,13 +12636,13 @@
         <v>25</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G173" s="2"/>
       <c r="H173" s="2"/>
@@ -12440,7 +12658,7 @@
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
       <c r="N173" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O173" s="2">
         <v>10</v>
@@ -12461,15 +12679,16 @@
         <v>0</v>
       </c>
       <c r="U173" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V173" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W173" s="2"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>24</v>
@@ -12478,13 +12697,13 @@
         <v>25</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
@@ -12500,7 +12719,7 @@
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O174" s="2">
         <v>10</v>
@@ -12521,15 +12740,16 @@
         <v>0</v>
       </c>
       <c r="U174" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V174" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W174" s="2"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>24</v>
@@ -12538,13 +12758,13 @@
         <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -12560,7 +12780,7 @@
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
       <c r="N175" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O175" s="2">
         <v>5</v>
@@ -12581,15 +12801,16 @@
         <v>0</v>
       </c>
       <c r="U175" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V175" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W175" s="2"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>24</v>
@@ -12598,13 +12819,13 @@
         <v>25</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
@@ -12620,7 +12841,7 @@
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
       <c r="N176" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O176" s="2">
         <v>5</v>
@@ -12641,15 +12862,16 @@
         <v>0</v>
       </c>
       <c r="U176" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V176" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W176" s="2"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>24</v>
@@ -12658,13 +12880,13 @@
         <v>25</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
@@ -12680,7 +12902,7 @@
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
       <c r="N177" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O177" s="2">
         <v>5</v>
@@ -12701,15 +12923,16 @@
         <v>0</v>
       </c>
       <c r="U177" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V177" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W177" s="2"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>24</v>
@@ -12718,13 +12941,13 @@
         <v>25</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -12740,7 +12963,7 @@
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
       <c r="N178" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O178" s="2">
         <v>5</v>
@@ -12761,15 +12984,16 @@
         <v>0</v>
       </c>
       <c r="U178" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V178" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W178" s="2"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>24</v>
@@ -12778,13 +13002,13 @@
         <v>25</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -12800,7 +13024,7 @@
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
       <c r="N179" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O179" s="2">
         <v>5</v>
@@ -12821,15 +13045,16 @@
         <v>0</v>
       </c>
       <c r="U179" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V179" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W179" s="2"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>24</v>
@@ -12838,13 +13063,13 @@
         <v>25</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
@@ -12860,7 +13085,7 @@
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="O180" s="2">
         <v>5</v>
@@ -12881,15 +13106,16 @@
         <v>0</v>
       </c>
       <c r="U180" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V180" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W180" s="2"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>24</v>
@@ -12898,13 +13124,13 @@
         <v>25</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
@@ -12920,7 +13146,7 @@
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
       <c r="N181" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O181" s="2">
         <v>5</v>
@@ -12941,15 +13167,16 @@
         <v>0</v>
       </c>
       <c r="U181" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V181" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W181" s="2"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>24</v>
@@ -12958,13 +13185,13 @@
         <v>25</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -12980,7 +13207,7 @@
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O182" s="2">
         <v>5</v>
@@ -13001,13 +13228,16 @@
         <v>0</v>
       </c>
       <c r="U182" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="V182" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="W182" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/MatchTA_Server/temp_file3.xlsx
+++ b/MatchTA_Server/temp_file3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Capstone/Capstone_Input_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Senior Classes/Working Project/MatchTA_Server/Capstone_Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{44C5818D-E3B4-4322-B722-14F9BA3628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0788184E-F192-4E3E-91D5-E62F714F71BC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{44C5818D-E3B4-4322-B722-14F9BA3628FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0FBB28D-FB3A-46A6-944F-8D57F1ABD739}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F126547-8D09-47BA-8417-2C26E540D7AA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F126547-8D09-47BA-8417-2C26E540D7AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Classes Report" sheetId="1" r:id="rId1"/>
@@ -1350,6 +1350,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,35 +1675,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83E3251-C2F7-4647-8758-BDA107DD0D5B}">
   <dimension ref="A1:W182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="67.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
-    <col min="22" max="22" width="29.85546875" customWidth="1"/>
-    <col min="23" max="23" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
